--- a/Labor 2/Batteriedaten (Anhang 1 von Labor 2).xlsx
+++ b/Labor 2/Batteriedaten (Anhang 1 von Labor 2).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B242323F-CA1F-4FF0-864C-12714DED7693}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D25EA9-5B29-4251-AE6E-2309BAA8DA66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>U_bat1(i) in V</t>
   </si>
@@ -37,21 +37,46 @@
   <si>
     <t>c_2:</t>
   </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>I(Spannungsquelle)</t>
+  </si>
+  <si>
+    <t>I(Ersatz)</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -96,15 +121,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1774,6 +1937,754 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I_Spannungsquelle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$51:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72E4-4982-B5A4-F9B7D01C82D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>I_Ersatzspannungsquelle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$51:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72E4-4982-B5A4-F9B7D01C82D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>I_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$51:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72E4-4982-B5A4-F9B7D01C82D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>I_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$51:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-72E4-4982-B5A4-F9B7D01C82D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="526894792"/>
+        <c:axId val="526893152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="526894792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Lastenwuiderstand RL in </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝛀</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526893152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526893152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strom</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> I in mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526894792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1894,6 +2805,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3424,6 +4375,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3533,6 +5000,184 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006F113B-5E79-407D-A4FC-22FA385DCF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6280150" y="7962900"/>
+          <a:ext cx="44450" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6A416D-BED0-40AD-AD6A-98B4BE264503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6280150" y="8547100"/>
+          <a:ext cx="44450" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59766</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>126253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149413</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>67982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC3D07D-F0D6-4EE2-A908-2F1344CA7202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3862,17 +5507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.81640625" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4146,7 +5792,299 @@
         <v>8.3785000000000007</v>
       </c>
     </row>
+    <row r="41" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>98</v>
+      </c>
+      <c r="E42" s="5">
+        <v>148</v>
+      </c>
+      <c r="F42" s="5">
+        <v>217</v>
+      </c>
+      <c r="G42" s="5">
+        <v>324</v>
+      </c>
+      <c r="H42" s="5">
+        <v>470</v>
+      </c>
+      <c r="I42" s="5">
+        <v>679</v>
+      </c>
+      <c r="J42" s="5">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>11.33</v>
+      </c>
+      <c r="E43" s="7">
+        <v>10.41</v>
+      </c>
+      <c r="F43" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="G43" s="7">
+        <v>8.02</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5.49</v>
+      </c>
+      <c r="J43" s="7">
+        <v>6.4099999999999997E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="3:10" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="6">
+        <v>11.43</v>
+      </c>
+      <c r="E45" s="6">
+        <v>10.47</v>
+      </c>
+      <c r="F45" s="6">
+        <v>9.35</v>
+      </c>
+      <c r="G45" s="6">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6.77</v>
+      </c>
+      <c r="I45" s="6">
+        <v>5.49</v>
+      </c>
+      <c r="J45" s="6">
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="3:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="9">
+        <v>12.46</v>
+      </c>
+      <c r="E47" s="10">
+        <v>9.02</v>
+      </c>
+      <c r="F47" s="10">
+        <v>7.64</v>
+      </c>
+      <c r="G47" s="10">
+        <v>6.13</v>
+      </c>
+      <c r="H47" s="10">
+        <v>4.92</v>
+      </c>
+      <c r="I47" s="10">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="11">
+        <v>10.19</v>
+      </c>
+      <c r="E48" s="12">
+        <v>8.83</v>
+      </c>
+      <c r="F48" s="12">
+        <v>7.49</v>
+      </c>
+      <c r="G48" s="12">
+        <v>6.02</v>
+      </c>
+      <c r="H48" s="12">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I48" s="12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>98</v>
+      </c>
+      <c r="B51" s="14">
+        <v>11.33</v>
+      </c>
+      <c r="C51" s="14">
+        <v>11.43</v>
+      </c>
+      <c r="D51" s="14">
+        <v>12.46</v>
+      </c>
+      <c r="E51" s="14">
+        <v>10.19</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>148</v>
+      </c>
+      <c r="B52" s="14">
+        <v>10.41</v>
+      </c>
+      <c r="C52" s="14">
+        <v>10.47</v>
+      </c>
+      <c r="D52" s="14">
+        <v>9.02</v>
+      </c>
+      <c r="E52" s="14">
+        <v>8.83</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>217</v>
+      </c>
+      <c r="B53" s="14">
+        <v>9.35</v>
+      </c>
+      <c r="C53" s="14">
+        <v>9.35</v>
+      </c>
+      <c r="D53" s="14">
+        <v>7.64</v>
+      </c>
+      <c r="E53" s="14">
+        <v>7.49</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>324</v>
+      </c>
+      <c r="B54" s="14">
+        <v>8.02</v>
+      </c>
+      <c r="C54" s="14">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D54" s="14">
+        <v>6.13</v>
+      </c>
+      <c r="E54" s="14">
+        <v>6.02</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>470</v>
+      </c>
+      <c r="B55" s="14">
+        <v>6.77</v>
+      </c>
+      <c r="C55" s="14">
+        <v>6.77</v>
+      </c>
+      <c r="D55" s="14">
+        <v>4.92</v>
+      </c>
+      <c r="E55" s="14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>679</v>
+      </c>
+      <c r="B56" s="14">
+        <v>5.49</v>
+      </c>
+      <c r="C56" s="14">
+        <v>5.49</v>
+      </c>
+      <c r="D56" s="14">
+        <v>3.77</v>
+      </c>
+      <c r="E56" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>9800000</v>
+      </c>
+      <c r="B57" s="15">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="C57" s="14">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Labor 2/Batteriedaten (Anhang 1 von Labor 2).xlsx
+++ b/Labor 2/Batteriedaten (Anhang 1 von Labor 2).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D25EA9-5B29-4251-AE6E-2309BAA8DA66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29151E3-D9A4-42B0-BD7E-376686F12F2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,12 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -267,13 +261,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4F81BD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -575,7 +580,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Laststrom</a:t>
+                  <a:t> Laststrom in A</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -696,8 +701,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Anliegende Spannung</a:t>
+                  <a:t>Anliegende Spannung in</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> V</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1107,7 +1117,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Fließender Laststrom</a:t>
+                  <a:t>Fließender Laststrom in A</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1231,7 +1241,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Spannung</a:t>
+                  <a:t> Spannung in V</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -1952,6 +1962,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>I-R-Kennlinien für verschiedene Lastwiderstände</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16614630747173317"/>
+          <c:y val="3.7574256308943225E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2233,7 +2276,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.46</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.02</c:v>
@@ -2321,7 +2364,7 @@
             <c:numRef>
               <c:f>Tabelle1!$E$51:$E$56</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10.19</c:v>
@@ -2404,16 +2447,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Lastenwuiderstand RL in </a:t>
+                  <a:t>Lastenwiderstand RL in 𝛀</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE">
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>𝛀</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2491,6 +2526,7 @@
         <c:axId val="526893152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2529,13 +2565,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Strom</a:t>
+                  <a:t>Strom I in mA</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> I in mA</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5152,13 +5183,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>59766</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>126253</xdr:rowOff>
+      <xdr:rowOff>114347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>149413</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>67982</xdr:rowOff>
+      <xdr:rowOff>56076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5509,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="I52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5823,36 +5854,36 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="14">
         <v>11.33</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="14">
         <v>10.41</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="14">
         <v>9.35</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="14">
         <v>8.02</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="14">
         <v>6.77</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="14">
         <v>5.49</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="14">
         <v>6.4099999999999997E-4</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="3:10" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D45" s="6">
@@ -5881,51 +5912,51 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="3:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="9">
+      <c r="D47" s="7">
         <v>12.46</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>9.02</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <v>7.64</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="8">
         <v>6.13</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <v>4.92</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <v>3.77</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>10.19</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <v>8.83</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>7.49</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>6.02</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="10">
         <v>4.8099999999999996</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <v>3.7</v>
       </c>
     </row>
@@ -5950,130 +5981,130 @@
       <c r="A51">
         <v>98</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="12">
         <v>11.33</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>11.43</v>
       </c>
-      <c r="D51" s="14">
-        <v>12.46</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="D51" s="12">
+        <v>10.44</v>
+      </c>
+      <c r="E51" s="12">
         <v>10.19</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>148</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="12">
         <v>10.41</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="12">
         <v>10.47</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="12">
         <v>9.02</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="12">
         <v>8.83</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>217</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>9.35</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="12">
         <v>9.35</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="12">
         <v>7.64</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <v>7.49</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>324</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="12">
         <v>8.02</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="12">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="12">
         <v>6.13</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="12">
         <v>6.02</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>470</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>6.77</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>6.77</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>4.92</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <v>4.8099999999999996</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>679</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="12">
         <v>5.49</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="12">
         <v>5.49</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="12">
         <v>3.77</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="12">
         <v>3.7</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>9800000</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="13">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
